--- a/fixtures/xlsx/basic/bool-error.xlsx
+++ b/fixtures/xlsx/basic/bool-error.xlsx
@@ -59,6 +59,18 @@
       <c r="B1" t="e">
         <v>#DIV/0!</v>
       </c>
+      <c r="C1" t="e">
+        <v>#FIELD!</v>
+      </c>
+      <c r="D1" t="e">
+        <v>#CONNECT!</v>
+      </c>
+      <c r="E1" t="e">
+        <v>#BLOCKED!</v>
+      </c>
+      <c r="F1" t="e">
+        <v>#UNKNOWN!</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="b">
